--- a/Ajout-RC/ig/StructureDefinition-dmi-bundle-request.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-bundle-request.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-24T10:11:35+00:00</t>
+    <t>2026-02-24T10:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>FRANCE</t>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-bundle-request.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-bundle-request.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-24T10:44:05+00:00</t>
+    <t>2026-02-24T16:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-bundle-request.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-bundle-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:15:31+00:00</t>
+    <t>2026-02-25T08:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-bundle-request.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-bundle-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:31:26+00:00</t>
+    <t>2026-02-25T08:48:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-bundle-request.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-bundle-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:48:17+00:00</t>
+    <t>2026-02-26T17:10:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-bundle-request.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-bundle-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-26T17:10:09+00:00</t>
+    <t>2026-02-27T10:05:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
